--- a/NRI_STLF_Data/WeatherData/T_hamedan/T_hamedan93.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_hamedan/T_hamedan93.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="7">
   <si>
     <t>Rain</t>
   </si>
@@ -43,25 +43,343 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -69,15 +387,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -378,13 +886,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="G313" sqref="G313"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>93</v>
       </c>
@@ -461,7 +969,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>93</v>
       </c>
@@ -544,7 +1052,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>93</v>
       </c>
@@ -609,7 +1117,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>93</v>
       </c>
@@ -674,7 +1182,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>93</v>
       </c>
@@ -751,7 +1259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>93</v>
       </c>
@@ -828,7 +1336,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>93</v>
       </c>
@@ -905,7 +1413,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>93</v>
       </c>
@@ -982,7 +1490,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>93</v>
       </c>
@@ -1059,7 +1567,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>93</v>
       </c>
@@ -1142,7 +1650,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>93</v>
       </c>
@@ -1225,7 +1733,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>93</v>
       </c>
@@ -1302,7 +1810,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>93</v>
       </c>
@@ -1382,7 +1890,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>93</v>
       </c>
@@ -1462,7 +1970,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>93</v>
       </c>
@@ -1545,7 +2053,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>93</v>
       </c>
@@ -1622,7 +2130,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>93</v>
       </c>
@@ -1699,7 +2207,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>93</v>
       </c>
@@ -1776,7 +2284,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>93</v>
       </c>
@@ -1853,7 +2361,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>93</v>
       </c>
@@ -1933,7 +2441,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>93</v>
       </c>
@@ -2013,7 +2521,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>93</v>
       </c>
@@ -2090,7 +2598,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>93</v>
       </c>
@@ -2155,7 +2663,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>93</v>
       </c>
@@ -2232,7 +2740,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>93</v>
       </c>
@@ -2312,7 +2820,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>93</v>
       </c>
@@ -2389,7 +2897,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>93</v>
       </c>
@@ -2466,7 +2974,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>93</v>
       </c>
@@ -2543,7 +3051,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>93</v>
       </c>
@@ -2620,7 +3128,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>93</v>
       </c>
@@ -2697,7 +3205,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>93</v>
       </c>
@@ -2774,7 +3282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>93</v>
       </c>
@@ -2851,7 +3359,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>93</v>
       </c>
@@ -2931,7 +3439,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>93</v>
       </c>
@@ -3008,7 +3516,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>93</v>
       </c>
@@ -3085,7 +3593,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>93</v>
       </c>
@@ -3162,7 +3670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>93</v>
       </c>
@@ -3239,7 +3747,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>93</v>
       </c>
@@ -3316,7 +3824,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>93</v>
       </c>
@@ -3393,7 +3901,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>93</v>
       </c>
@@ -3470,7 +3978,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>93</v>
       </c>
@@ -3547,7 +4055,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>93</v>
       </c>
@@ -3624,7 +4132,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>93</v>
       </c>
@@ -3701,7 +4209,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>93</v>
       </c>
@@ -3778,7 +4286,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>93</v>
       </c>
@@ -3797,6 +4305,9 @@
       <c r="F45">
         <v>14</v>
       </c>
+      <c r="G45">
+        <v>14</v>
+      </c>
       <c r="H45">
         <v>14</v>
       </c>
@@ -3840,7 +4351,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>93</v>
       </c>
@@ -3905,7 +4416,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>93</v>
       </c>
@@ -3970,7 +4481,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>93</v>
       </c>
@@ -4047,7 +4558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>93</v>
       </c>
@@ -4124,7 +4635,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>93</v>
       </c>
@@ -4201,7 +4712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>93</v>
       </c>
@@ -4281,7 +4792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>93</v>
       </c>
@@ -4358,7 +4869,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>93</v>
       </c>
@@ -4438,7 +4949,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>93</v>
       </c>
@@ -4515,7 +5026,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>93</v>
       </c>
@@ -4592,7 +5103,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>93</v>
       </c>
@@ -4672,7 +5183,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>93</v>
       </c>
@@ -4749,7 +5260,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>93</v>
       </c>
@@ -4826,7 +5337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>93</v>
       </c>
@@ -4906,7 +5417,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>93</v>
       </c>
@@ -4983,7 +5494,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>93</v>
       </c>
@@ -5063,7 +5574,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>93</v>
       </c>
@@ -5140,7 +5651,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>93</v>
       </c>
@@ -5217,7 +5728,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>93</v>
       </c>
@@ -5294,7 +5805,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>93</v>
       </c>
@@ -5374,7 +5885,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>93</v>
       </c>
@@ -5454,7 +5965,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>93</v>
       </c>
@@ -5531,7 +6042,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>93</v>
       </c>
@@ -5614,7 +6125,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>93</v>
       </c>
@@ -5694,7 +6205,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>93</v>
       </c>
@@ -5771,7 +6282,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>93</v>
       </c>
@@ -5848,7 +6359,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>93</v>
       </c>
@@ -5925,7 +6436,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>93</v>
       </c>
@@ -6002,7 +6513,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>93</v>
       </c>
@@ -6079,7 +6590,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>93</v>
       </c>
@@ -6156,7 +6667,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>93</v>
       </c>
@@ -6233,7 +6744,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>93</v>
       </c>
@@ -6310,7 +6821,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>93</v>
       </c>
@@ -6387,7 +6898,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>93</v>
       </c>
@@ -6464,7 +6975,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>93</v>
       </c>
@@ -6544,7 +7055,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>93</v>
       </c>
@@ -6621,7 +7132,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>93</v>
       </c>
@@ -6698,7 +7209,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>93</v>
       </c>
@@ -6778,7 +7289,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>93</v>
       </c>
@@ -6855,7 +7366,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>93</v>
       </c>
@@ -6932,7 +7443,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>93</v>
       </c>
@@ -7009,7 +7520,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>93</v>
       </c>
@@ -7086,7 +7597,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>93</v>
       </c>
@@ -7163,7 +7674,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>93</v>
       </c>
@@ -7240,7 +7751,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>93</v>
       </c>
@@ -7320,7 +7831,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>93</v>
       </c>
@@ -7397,7 +7908,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>93</v>
       </c>
@@ -7474,7 +7985,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>93</v>
       </c>
@@ -7551,7 +8062,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7628,7 +8139,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -7705,7 +8216,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>93</v>
       </c>
@@ -7782,7 +8293,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>93</v>
       </c>
@@ -7859,7 +8370,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>93</v>
       </c>
@@ -7936,7 +8447,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>93</v>
       </c>
@@ -8013,7 +8524,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>93</v>
       </c>
@@ -8090,7 +8601,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>93</v>
       </c>
@@ -8170,7 +8681,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>93</v>
       </c>
@@ -8247,7 +8758,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>93</v>
       </c>
@@ -8324,7 +8835,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>93</v>
       </c>
@@ -8401,7 +8912,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>93</v>
       </c>
@@ -8481,7 +8992,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>93</v>
       </c>
@@ -8561,7 +9072,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>93</v>
       </c>
@@ -8638,7 +9149,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>93</v>
       </c>
@@ -8715,7 +9226,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>93</v>
       </c>
@@ -8792,7 +9303,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>93</v>
       </c>
@@ -8869,7 +9380,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>93</v>
       </c>
@@ -8946,7 +9457,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>93</v>
       </c>
@@ -9023,7 +9534,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>93</v>
       </c>
@@ -9100,7 +9611,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>93</v>
       </c>
@@ -9177,7 +9688,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>93</v>
       </c>
@@ -9257,7 +9768,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>93</v>
       </c>
@@ -9334,7 +9845,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>93</v>
       </c>
@@ -9411,7 +9922,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="118" spans="1:27">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>93</v>
       </c>
@@ -9488,7 +9999,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="119" spans="1:27">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>93</v>
       </c>
@@ -9565,7 +10076,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="120" spans="1:27">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>93</v>
       </c>
@@ -9642,7 +10153,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="121" spans="1:27">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>93</v>
       </c>
@@ -9719,7 +10230,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="122" spans="1:27">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>93</v>
       </c>
@@ -9784,7 +10295,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>93</v>
       </c>
@@ -9849,7 +10360,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="124" spans="1:27">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>93</v>
       </c>
@@ -9914,7 +10425,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="125" spans="1:27">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>93</v>
       </c>
@@ -9979,7 +10490,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="126" spans="1:27">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>93</v>
       </c>
@@ -10056,7 +10567,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="127" spans="1:27">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>93</v>
       </c>
@@ -10133,7 +10644,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="128" spans="1:27">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>93</v>
       </c>
@@ -10210,7 +10721,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>93</v>
       </c>
@@ -10287,7 +10798,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="130" spans="1:27">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>93</v>
       </c>
@@ -10352,7 +10863,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="131" spans="1:27">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>93</v>
       </c>
@@ -10417,7 +10928,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="132" spans="1:27">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>93</v>
       </c>
@@ -10494,7 +11005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:27">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>93</v>
       </c>
@@ -10571,7 +11082,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="134" spans="1:27">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>93</v>
       </c>
@@ -10648,7 +11159,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="135" spans="1:27">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>93</v>
       </c>
@@ -10725,7 +11236,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="136" spans="1:27">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>93</v>
       </c>
@@ -10802,7 +11313,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="137" spans="1:27">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>93</v>
       </c>
@@ -10879,7 +11390,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="138" spans="1:27">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>93</v>
       </c>
@@ -10944,7 +11455,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="139" spans="1:27">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>93</v>
       </c>
@@ -11009,7 +11520,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="140" spans="1:27">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>93</v>
       </c>
@@ -11074,7 +11585,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:27">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>93</v>
       </c>
@@ -11139,7 +11650,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:27">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>93</v>
       </c>
@@ -11216,7 +11727,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="143" spans="1:27">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>93</v>
       </c>
@@ -11293,7 +11804,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="144" spans="1:27">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>93</v>
       </c>
@@ -11370,7 +11881,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="145" spans="1:27">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>93</v>
       </c>
@@ -11435,7 +11946,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="146" spans="1:27">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>93</v>
       </c>
@@ -11512,7 +12023,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="147" spans="1:27">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>93</v>
       </c>
@@ -11589,7 +12100,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="148" spans="1:27">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>93</v>
       </c>
@@ -11666,7 +12177,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="149" spans="1:27">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>93</v>
       </c>
@@ -11743,7 +12254,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" spans="1:27">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>93</v>
       </c>
@@ -11820,7 +12331,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="151" spans="1:27">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>93</v>
       </c>
@@ -11897,7 +12408,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="152" spans="1:27">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>93</v>
       </c>
@@ -11974,7 +12485,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="153" spans="1:27">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>93</v>
       </c>
@@ -12051,7 +12562,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="154" spans="1:27">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>93</v>
       </c>
@@ -12128,7 +12639,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="155" spans="1:27">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>93</v>
       </c>
@@ -12205,7 +12716,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="156" spans="1:27">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>93</v>
       </c>
@@ -12282,7 +12793,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="157" spans="1:27">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>93</v>
       </c>
@@ -12359,7 +12870,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:27">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>93</v>
       </c>
@@ -12436,7 +12947,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="159" spans="1:27">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>93</v>
       </c>
@@ -12513,7 +13024,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="160" spans="1:27">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>93</v>
       </c>
@@ -12590,7 +13101,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="161" spans="1:27">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>93</v>
       </c>
@@ -12667,7 +13178,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="162" spans="1:27">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>93</v>
       </c>
@@ -12744,7 +13255,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="163" spans="1:27">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>93</v>
       </c>
@@ -12821,7 +13332,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="164" spans="1:27">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>93</v>
       </c>
@@ -12898,7 +13409,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="165" spans="1:27">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>93</v>
       </c>
@@ -12975,7 +13486,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="166" spans="1:27">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>93</v>
       </c>
@@ -13052,7 +13563,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="167" spans="1:27">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>93</v>
       </c>
@@ -13129,7 +13640,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="168" spans="1:27">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>93</v>
       </c>
@@ -13206,7 +13717,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="169" spans="1:27">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>93</v>
       </c>
@@ -13271,7 +13782,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="170" spans="1:27">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>93</v>
       </c>
@@ -13348,7 +13859,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="171" spans="1:27">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>93</v>
       </c>
@@ -13425,7 +13936,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="172" spans="1:27">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>93</v>
       </c>
@@ -13490,7 +14001,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="173" spans="1:27">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>93</v>
       </c>
@@ -13555,7 +14066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:27">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>93</v>
       </c>
@@ -13620,7 +14131,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="175" spans="1:27">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>93</v>
       </c>
@@ -13685,7 +14196,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="176" spans="1:27">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>93</v>
       </c>
@@ -13750,7 +14261,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="177" spans="1:27">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>93</v>
       </c>
@@ -13815,7 +14326,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="178" spans="1:27">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>93</v>
       </c>
@@ -13880,7 +14391,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="179" spans="1:27">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>93</v>
       </c>
@@ -13957,7 +14468,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="180" spans="1:27">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>93</v>
       </c>
@@ -14022,7 +14533,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="181" spans="1:27">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>93</v>
       </c>
@@ -14099,7 +14610,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="182" spans="1:27">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>93</v>
       </c>
@@ -14164,7 +14675,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="183" spans="1:27">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>93</v>
       </c>
@@ -14229,7 +14740,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="184" spans="1:27">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>93</v>
       </c>
@@ -14294,7 +14805,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="185" spans="1:27">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>93</v>
       </c>
@@ -14371,7 +14882,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="186" spans="1:27">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>93</v>
       </c>
@@ -14439,7 +14950,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="187" spans="1:27">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>93</v>
       </c>
@@ -14504,7 +15015,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="188" spans="1:27">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>93</v>
       </c>
@@ -14569,7 +15080,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="189" spans="1:27">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>93</v>
       </c>
@@ -14646,7 +15157,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="190" spans="1:27">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>93</v>
       </c>
@@ -14723,7 +15234,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="191" spans="1:27">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>93</v>
       </c>
@@ -14788,7 +15299,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="192" spans="1:27">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>93</v>
       </c>
@@ -14853,7 +15364,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="193" spans="1:27">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>93</v>
       </c>
@@ -14930,7 +15441,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="194" spans="1:27">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>93</v>
       </c>
@@ -15007,7 +15518,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="195" spans="1:27">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>93</v>
       </c>
@@ -15084,7 +15595,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="196" spans="1:27">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>93</v>
       </c>
@@ -15161,7 +15672,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="197" spans="1:27">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>93</v>
       </c>
@@ -15241,7 +15752,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="198" spans="1:27">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>93</v>
       </c>
@@ -15318,7 +15829,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="199" spans="1:27">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>93</v>
       </c>
@@ -15395,7 +15906,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="200" spans="1:27">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>93</v>
       </c>
@@ -15472,7 +15983,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="201" spans="1:27">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>93</v>
       </c>
@@ -15537,7 +16048,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="202" spans="1:27">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>93</v>
       </c>
@@ -15614,7 +16125,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="203" spans="1:27">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>93</v>
       </c>
@@ -15691,7 +16202,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="204" spans="1:27">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>93</v>
       </c>
@@ -15768,7 +16279,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="205" spans="1:27">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>93</v>
       </c>
@@ -15845,7 +16356,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="206" spans="1:27">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>93</v>
       </c>
@@ -15922,7 +16433,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="207" spans="1:27">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>93</v>
       </c>
@@ -16002,7 +16513,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="208" spans="1:27">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>93</v>
       </c>
@@ -16079,7 +16590,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="209" spans="1:27">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>93</v>
       </c>
@@ -16156,7 +16667,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="210" spans="1:27">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>93</v>
       </c>
@@ -16233,7 +16744,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="211" spans="1:27">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>93</v>
       </c>
@@ -16313,7 +16824,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="212" spans="1:27">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>93</v>
       </c>
@@ -16390,7 +16901,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="213" spans="1:27">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>93</v>
       </c>
@@ -16467,7 +16978,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="214" spans="1:27">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>93</v>
       </c>
@@ -16550,7 +17061,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="215" spans="1:27">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>93</v>
       </c>
@@ -16630,7 +17141,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:27">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>93</v>
       </c>
@@ -16707,7 +17218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:27">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>93</v>
       </c>
@@ -16772,7 +17283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:27">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>93</v>
       </c>
@@ -16837,7 +17348,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="219" spans="1:27">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>93</v>
       </c>
@@ -16902,7 +17413,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="220" spans="1:27">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>93</v>
       </c>
@@ -16979,7 +17490,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="221" spans="1:27">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>93</v>
       </c>
@@ -17044,7 +17555,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="222" spans="1:27">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>93</v>
       </c>
@@ -17121,7 +17632,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="223" spans="1:27">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>93</v>
       </c>
@@ -17198,7 +17709,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="224" spans="1:27">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>93</v>
       </c>
@@ -17275,7 +17786,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="225" spans="1:27">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>93</v>
       </c>
@@ -17352,7 +17863,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="226" spans="1:27">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>93</v>
       </c>
@@ -17432,7 +17943,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="227" spans="1:27">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>93</v>
       </c>
@@ -17509,7 +18020,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="228" spans="1:27">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>93</v>
       </c>
@@ -17586,7 +18097,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="229" spans="1:27">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>93</v>
       </c>
@@ -17669,7 +18180,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="230" spans="1:27">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>93</v>
       </c>
@@ -17746,7 +18257,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="231" spans="1:27">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>93</v>
       </c>
@@ -17811,7 +18322,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="232" spans="1:27">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>93</v>
       </c>
@@ -17876,7 +18387,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="233" spans="1:27">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>93</v>
       </c>
@@ -17941,7 +18452,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="234" spans="1:27">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>93</v>
       </c>
@@ -18006,7 +18517,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="235" spans="1:27">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>93</v>
       </c>
@@ -18071,7 +18582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:27">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>93</v>
       </c>
@@ -18136,7 +18647,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="237" spans="1:27">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>93</v>
       </c>
@@ -18201,7 +18712,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="238" spans="1:27">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>93</v>
       </c>
@@ -18278,7 +18789,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="239" spans="1:27">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>93</v>
       </c>
@@ -18355,7 +18866,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="240" spans="1:27">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>93</v>
       </c>
@@ -18432,7 +18943,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="241" spans="1:27">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>93</v>
       </c>
@@ -18497,7 +19008,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="242" spans="1:27">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>93</v>
       </c>
@@ -18574,7 +19085,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="243" spans="1:27">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>93</v>
       </c>
@@ -18654,7 +19165,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="244" spans="1:27">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>93</v>
       </c>
@@ -18731,7 +19242,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="245" spans="1:27">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>93</v>
       </c>
@@ -18808,7 +19319,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="246" spans="1:27">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>93</v>
       </c>
@@ -18888,7 +19399,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="247" spans="1:27">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>93</v>
       </c>
@@ -18968,7 +19479,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="248" spans="1:27">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>93</v>
       </c>
@@ -19048,7 +19559,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="249" spans="1:27">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>93</v>
       </c>
@@ -19125,7 +19636,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="250" spans="1:27">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>93</v>
       </c>
@@ -19202,7 +19713,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="251" spans="1:27">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>93</v>
       </c>
@@ -19279,7 +19790,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="252" spans="1:27">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>93</v>
       </c>
@@ -19356,7 +19867,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="253" spans="1:27">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>93</v>
       </c>
@@ -19375,6 +19886,9 @@
       <c r="F253">
         <v>0</v>
       </c>
+      <c r="G253">
+        <v>7</v>
+      </c>
       <c r="H253">
         <v>0</v>
       </c>
@@ -19430,7 +19944,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="254" spans="1:27">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>93</v>
       </c>
@@ -19507,7 +20021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="255" spans="1:27">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>93</v>
       </c>
@@ -19584,7 +20098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:27">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>93</v>
       </c>
@@ -19649,7 +20163,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="257" spans="1:27">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>93</v>
       </c>
@@ -19668,6 +20182,9 @@
       <c r="F257">
         <v>-2</v>
       </c>
+      <c r="G257">
+        <v>2</v>
+      </c>
       <c r="H257">
         <v>-2</v>
       </c>
@@ -19711,7 +20228,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="258" spans="1:27">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>93</v>
       </c>
@@ -19776,7 +20293,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="259" spans="1:27">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>93</v>
       </c>
@@ -19853,7 +20370,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="260" spans="1:27">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>93</v>
       </c>
@@ -19930,7 +20447,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="261" spans="1:27">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>93</v>
       </c>
@@ -19995,7 +20512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:27">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>93</v>
       </c>
@@ -20060,7 +20577,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="263" spans="1:27">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>93</v>
       </c>
@@ -20125,7 +20642,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="264" spans="1:27">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>93</v>
       </c>
@@ -20205,7 +20722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="1:27">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>93</v>
       </c>
@@ -20285,7 +20802,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="266" spans="1:27">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>93</v>
       </c>
@@ -20350,7 +20867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="267" spans="1:27">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>93</v>
       </c>
@@ -20427,7 +20944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:27">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>93</v>
       </c>
@@ -20507,7 +21024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:27">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>93</v>
       </c>
@@ -20587,7 +21104,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="270" spans="1:27">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>93</v>
       </c>
@@ -20664,7 +21181,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="271" spans="1:27">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>93</v>
       </c>
@@ -20741,7 +21258,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="272" spans="1:27">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>93</v>
       </c>
@@ -20818,7 +21335,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="273" spans="1:27">
+    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>93</v>
       </c>
@@ -20883,7 +21400,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="274" spans="1:27">
+    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>93</v>
       </c>
@@ -20948,7 +21465,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="275" spans="1:27">
+    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>93</v>
       </c>
@@ -21025,7 +21542,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="276" spans="1:27">
+    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>93</v>
       </c>
@@ -21102,7 +21619,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="277" spans="1:27">
+    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>93</v>
       </c>
@@ -21167,7 +21684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="278" spans="1:27">
+    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>93</v>
       </c>
@@ -21232,7 +21749,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="279" spans="1:27">
+    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>93</v>
       </c>
@@ -21297,7 +21814,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="280" spans="1:27">
+    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>93</v>
       </c>
@@ -21374,7 +21891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="281" spans="1:27">
+    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>93</v>
       </c>
@@ -21451,7 +21968,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="282" spans="1:27">
+    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>93</v>
       </c>
@@ -21528,7 +22045,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="283" spans="1:27">
+    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>93</v>
       </c>
@@ -21605,7 +22122,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="284" spans="1:27">
+    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>93</v>
       </c>
@@ -21670,7 +22187,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="285" spans="1:27">
+    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>93</v>
       </c>
@@ -21747,7 +22264,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="286" spans="1:27">
+    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>93</v>
       </c>
@@ -21827,7 +22344,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="287" spans="1:27">
+    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>93</v>
       </c>
@@ -21907,7 +22424,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="288" spans="1:27">
+    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>93</v>
       </c>
@@ -21987,7 +22504,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="289" spans="1:27">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>93</v>
       </c>
@@ -22067,7 +22584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:27">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>93</v>
       </c>
@@ -22144,7 +22661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:27">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>93</v>
       </c>
@@ -22209,7 +22726,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="292" spans="1:27">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>93</v>
       </c>
@@ -22274,7 +22791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:27">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>93</v>
       </c>
@@ -22351,7 +22868,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="294" spans="1:27">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>93</v>
       </c>
@@ -22428,7 +22945,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="295" spans="1:27">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>93</v>
       </c>
@@ -22505,7 +23022,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="296" spans="1:27">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>93</v>
       </c>
@@ -22582,7 +23099,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="297" spans="1:27">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>93</v>
       </c>
@@ -22659,7 +23176,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="298" spans="1:27">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>93</v>
       </c>
@@ -22724,7 +23241,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="299" spans="1:27">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>93</v>
       </c>
@@ -22789,7 +23306,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="300" spans="1:27">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>93</v>
       </c>
@@ -22866,7 +23383,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="301" spans="1:27">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>93</v>
       </c>
@@ -22943,7 +23460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="302" spans="1:27">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>93</v>
       </c>
@@ -23008,7 +23525,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="303" spans="1:27">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>93</v>
       </c>
@@ -23085,7 +23602,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="304" spans="1:27">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>93</v>
       </c>
@@ -23162,7 +23679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="305" spans="1:27">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>93</v>
       </c>
@@ -23239,7 +23756,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="306" spans="1:27">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>93</v>
       </c>
@@ -23316,7 +23833,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="307" spans="1:27">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>93</v>
       </c>
@@ -23393,7 +23910,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="308" spans="1:27">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>93</v>
       </c>
@@ -23473,7 +23990,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="309" spans="1:27">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>93</v>
       </c>
@@ -23550,7 +24067,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="310" spans="1:27">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>93</v>
       </c>
@@ -23627,7 +24144,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="311" spans="1:27">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>93</v>
       </c>
@@ -23692,7 +24209,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="312" spans="1:27">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>93</v>
       </c>
@@ -23769,7 +24286,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="313" spans="1:27">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>93</v>
       </c>
@@ -23785,6 +24302,15 @@
       <c r="E313">
         <v>1</v>
       </c>
+      <c r="F313">
+        <v>14</v>
+      </c>
+      <c r="G313">
+        <v>8</v>
+      </c>
+      <c r="H313">
+        <v>3</v>
+      </c>
       <c r="X313">
         <v>0</v>
       </c>
@@ -23792,7 +24318,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="314" spans="1:27">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>93</v>
       </c>
@@ -23869,7 +24395,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="315" spans="1:27">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>93</v>
       </c>
@@ -23934,7 +24460,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="316" spans="1:27">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>93</v>
       </c>
@@ -24011,7 +24537,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="317" spans="1:27">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>93</v>
       </c>
@@ -24091,7 +24617,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="318" spans="1:27">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>93</v>
       </c>
@@ -24171,7 +24697,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="319" spans="1:27">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>93</v>
       </c>
@@ -24254,7 +24780,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="320" spans="1:27">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>93</v>
       </c>
@@ -24334,7 +24860,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="321" spans="1:27">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>93</v>
       </c>
@@ -24414,7 +24940,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="322" spans="1:27">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>93</v>
       </c>
@@ -24491,7 +25017,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="323" spans="1:27">
+    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>93</v>
       </c>
@@ -24568,7 +25094,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="324" spans="1:27">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>93</v>
       </c>
@@ -24645,7 +25171,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="325" spans="1:27">
+    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>93</v>
       </c>
@@ -24725,7 +25251,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="326" spans="1:27">
+    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>93</v>
       </c>
@@ -24805,7 +25331,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="327" spans="1:27">
+    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>93</v>
       </c>
@@ -24882,7 +25408,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="328" spans="1:27">
+    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>93</v>
       </c>
@@ -24959,7 +25485,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="329" spans="1:27">
+    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>93</v>
       </c>
@@ -25039,7 +25565,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="330" spans="1:27">
+    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>93</v>
       </c>
@@ -25116,7 +25642,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="331" spans="1:27">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>93</v>
       </c>
@@ -25193,7 +25719,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="332" spans="1:27">
+    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>93</v>
       </c>
@@ -25270,7 +25796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="333" spans="1:27">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>93</v>
       </c>
@@ -25347,7 +25873,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="334" spans="1:27">
+    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>93</v>
       </c>
@@ -25424,7 +25950,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="335" spans="1:27">
+    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>93</v>
       </c>
@@ -25501,7 +26027,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="336" spans="1:27">
+    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>93</v>
       </c>
@@ -25578,7 +26104,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="337" spans="1:27">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>93</v>
       </c>
@@ -25655,7 +26181,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="338" spans="1:27">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>93</v>
       </c>
@@ -25735,7 +26261,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="339" spans="1:27">
+    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>93</v>
       </c>
@@ -25800,7 +26326,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="340" spans="1:27">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>93</v>
       </c>
@@ -25865,7 +26391,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="341" spans="1:27">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>93</v>
       </c>
@@ -25930,7 +26456,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="342" spans="1:27">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>93</v>
       </c>
@@ -26007,7 +26533,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="343" spans="1:27">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>93</v>
       </c>
@@ -26087,7 +26613,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="344" spans="1:27">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>93</v>
       </c>
@@ -26152,7 +26678,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="345" spans="1:27">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>93</v>
       </c>
@@ -26217,7 +26743,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="346" spans="1:27">
+    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>93</v>
       </c>
@@ -26294,7 +26820,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="347" spans="1:27">
+    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>93</v>
       </c>
@@ -26371,7 +26897,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="348" spans="1:27">
+    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>93</v>
       </c>
@@ -26448,7 +26974,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="349" spans="1:27">
+    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>93</v>
       </c>
@@ -26525,7 +27051,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="350" spans="1:27">
+    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>93</v>
       </c>
@@ -26602,7 +27128,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="351" spans="1:27">
+    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>93</v>
       </c>
@@ -26682,7 +27208,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="352" spans="1:27">
+    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>93</v>
       </c>
@@ -26759,7 +27285,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="353" spans="1:27">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>93</v>
       </c>
@@ -26842,7 +27368,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="354" spans="1:27">
+    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>93</v>
       </c>
@@ -26858,8 +27384,70 @@
       <c r="E354">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:27">
+      <c r="F354" s="1">
+        <v>15</v>
+      </c>
+      <c r="G354" s="1">
+        <v>10</v>
+      </c>
+      <c r="H354" s="1">
+        <v>5</v>
+      </c>
+      <c r="I354" s="1">
+        <v>-6</v>
+      </c>
+      <c r="J354" s="1">
+        <v>-8</v>
+      </c>
+      <c r="K354" s="1">
+        <v>-12</v>
+      </c>
+      <c r="L354" s="1">
+        <v>29</v>
+      </c>
+      <c r="M354" s="1">
+        <v>24</v>
+      </c>
+      <c r="N354" s="1">
+        <v>22</v>
+      </c>
+      <c r="O354" s="1">
+        <v>1022</v>
+      </c>
+      <c r="P354" s="1">
+        <v>1021</v>
+      </c>
+      <c r="Q354" s="1">
+        <v>1019</v>
+      </c>
+      <c r="R354" s="1">
+        <v>10</v>
+      </c>
+      <c r="S354" s="1">
+        <v>10</v>
+      </c>
+      <c r="T354" s="1">
+        <v>10</v>
+      </c>
+      <c r="U354" s="1">
+        <v>23</v>
+      </c>
+      <c r="V354" s="1">
+        <v>10</v>
+      </c>
+      <c r="W354" s="1"/>
+      <c r="X354" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y354" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z354" s="1"/>
+      <c r="AA354" s="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>93</v>
       </c>
@@ -26875,8 +27463,72 @@
       <c r="E355">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:27">
+      <c r="F355" s="1">
+        <v>7</v>
+      </c>
+      <c r="G355" s="1">
+        <v>2</v>
+      </c>
+      <c r="H355" s="1">
+        <v>-3</v>
+      </c>
+      <c r="I355" s="1">
+        <v>-2</v>
+      </c>
+      <c r="J355" s="1">
+        <v>-7</v>
+      </c>
+      <c r="K355" s="1">
+        <v>-15</v>
+      </c>
+      <c r="L355" s="1">
+        <v>87</v>
+      </c>
+      <c r="M355" s="1">
+        <v>58</v>
+      </c>
+      <c r="N355" s="1">
+        <v>20</v>
+      </c>
+      <c r="O355" s="1">
+        <v>1026</v>
+      </c>
+      <c r="P355" s="1">
+        <v>1025</v>
+      </c>
+      <c r="Q355" s="1">
+        <v>1023</v>
+      </c>
+      <c r="R355" s="1">
+        <v>10</v>
+      </c>
+      <c r="S355" s="1">
+        <v>9</v>
+      </c>
+      <c r="T355" s="1">
+        <v>3</v>
+      </c>
+      <c r="U355" s="1">
+        <v>19</v>
+      </c>
+      <c r="V355" s="1">
+        <v>8</v>
+      </c>
+      <c r="W355" s="1"/>
+      <c r="X355" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y355" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z355" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA355" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>93</v>
       </c>
@@ -26892,8 +27544,62 @@
       <c r="E356">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:27">
+      <c r="F356" s="1">
+        <v>10</v>
+      </c>
+      <c r="G356" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H356" s="1">
+        <v>-12</v>
+      </c>
+      <c r="I356" s="1">
+        <v>-17</v>
+      </c>
+      <c r="J356" s="1">
+        <v>-21</v>
+      </c>
+      <c r="K356" s="1">
+        <v>-24</v>
+      </c>
+      <c r="L356" s="1">
+        <v>57</v>
+      </c>
+      <c r="M356" s="1">
+        <v>29</v>
+      </c>
+      <c r="N356" s="1">
+        <v>9</v>
+      </c>
+      <c r="O356" s="1">
+        <v>1028</v>
+      </c>
+      <c r="P356" s="1">
+        <v>1027</v>
+      </c>
+      <c r="Q356" s="1">
+        <v>1025</v>
+      </c>
+      <c r="R356" s="1"/>
+      <c r="S356" s="1"/>
+      <c r="T356" s="1"/>
+      <c r="U356" s="1">
+        <v>8</v>
+      </c>
+      <c r="V356" s="1">
+        <v>3</v>
+      </c>
+      <c r="W356" s="1"/>
+      <c r="X356" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y356" s="1"/>
+      <c r="Z356" s="1"/>
+      <c r="AA356" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>93</v>
       </c>
@@ -26909,8 +27615,62 @@
       <c r="E357">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:27">
+      <c r="F357" s="1">
+        <v>14</v>
+      </c>
+      <c r="G357" s="1">
+        <v>3</v>
+      </c>
+      <c r="H357" s="1">
+        <v>-3</v>
+      </c>
+      <c r="I357" s="1">
+        <v>-9</v>
+      </c>
+      <c r="J357" s="1">
+        <v>-11</v>
+      </c>
+      <c r="K357" s="1">
+        <v>-13</v>
+      </c>
+      <c r="L357" s="1">
+        <v>47</v>
+      </c>
+      <c r="M357" s="1">
+        <v>32</v>
+      </c>
+      <c r="N357" s="1">
+        <v>20</v>
+      </c>
+      <c r="O357" s="1">
+        <v>1026</v>
+      </c>
+      <c r="P357" s="1">
+        <v>1025</v>
+      </c>
+      <c r="Q357" s="1">
+        <v>1022</v>
+      </c>
+      <c r="R357" s="1"/>
+      <c r="S357" s="1"/>
+      <c r="T357" s="1"/>
+      <c r="U357" s="1">
+        <v>11</v>
+      </c>
+      <c r="V357" s="1">
+        <v>3</v>
+      </c>
+      <c r="W357" s="1"/>
+      <c r="X357" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y357" s="1"/>
+      <c r="Z357" s="1"/>
+      <c r="AA357" s="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>93</v>
       </c>
@@ -26926,8 +27686,70 @@
       <c r="E358">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:27">
+      <c r="F358" s="1">
+        <v>14</v>
+      </c>
+      <c r="G358" s="1">
+        <v>7</v>
+      </c>
+      <c r="H358" s="1">
+        <v>0</v>
+      </c>
+      <c r="I358" s="1">
+        <v>0</v>
+      </c>
+      <c r="J358" s="1">
+        <v>-4</v>
+      </c>
+      <c r="K358" s="1">
+        <v>-9</v>
+      </c>
+      <c r="L358" s="1">
+        <v>54</v>
+      </c>
+      <c r="M358" s="1">
+        <v>43</v>
+      </c>
+      <c r="N358" s="1">
+        <v>34</v>
+      </c>
+      <c r="O358" s="1">
+        <v>1022</v>
+      </c>
+      <c r="P358" s="1">
+        <v>1020</v>
+      </c>
+      <c r="Q358" s="1">
+        <v>1019</v>
+      </c>
+      <c r="R358" s="1">
+        <v>10</v>
+      </c>
+      <c r="S358" s="1">
+        <v>10</v>
+      </c>
+      <c r="T358" s="1">
+        <v>10</v>
+      </c>
+      <c r="U358" s="1">
+        <v>8</v>
+      </c>
+      <c r="V358" s="1">
+        <v>2</v>
+      </c>
+      <c r="W358" s="1"/>
+      <c r="X358" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y358" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z358" s="1"/>
+      <c r="AA358" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>93</v>
       </c>
@@ -26943,8 +27765,70 @@
       <c r="E359">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:27">
+      <c r="F359" s="1">
+        <v>17</v>
+      </c>
+      <c r="G359" s="1">
+        <v>9</v>
+      </c>
+      <c r="H359" s="1">
+        <v>2</v>
+      </c>
+      <c r="I359" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J359" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K359" s="1">
+        <v>-3</v>
+      </c>
+      <c r="L359" s="1">
+        <v>70</v>
+      </c>
+      <c r="M359" s="1">
+        <v>42</v>
+      </c>
+      <c r="N359" s="1">
+        <v>26</v>
+      </c>
+      <c r="O359" s="1">
+        <v>1023</v>
+      </c>
+      <c r="P359" s="1">
+        <v>1021</v>
+      </c>
+      <c r="Q359" s="1">
+        <v>1019</v>
+      </c>
+      <c r="R359" s="1">
+        <v>10</v>
+      </c>
+      <c r="S359" s="1">
+        <v>10</v>
+      </c>
+      <c r="T359" s="1">
+        <v>10</v>
+      </c>
+      <c r="U359" s="1">
+        <v>8</v>
+      </c>
+      <c r="V359" s="1">
+        <v>5</v>
+      </c>
+      <c r="W359" s="1"/>
+      <c r="X359" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y359" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z359" s="1"/>
+      <c r="AA359" s="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>93</v>
       </c>
@@ -26960,8 +27844,70 @@
       <c r="E360">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:27">
+      <c r="F360" s="1">
+        <v>16</v>
+      </c>
+      <c r="G360" s="1">
+        <v>8</v>
+      </c>
+      <c r="H360" s="1">
+        <v>1</v>
+      </c>
+      <c r="I360" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J360" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K360" s="1">
+        <v>-5</v>
+      </c>
+      <c r="L360" s="1">
+        <v>65</v>
+      </c>
+      <c r="M360" s="1">
+        <v>39</v>
+      </c>
+      <c r="N360" s="1">
+        <v>27</v>
+      </c>
+      <c r="O360" s="1">
+        <v>1021</v>
+      </c>
+      <c r="P360" s="1">
+        <v>1019</v>
+      </c>
+      <c r="Q360" s="1">
+        <v>1017</v>
+      </c>
+      <c r="R360" s="1">
+        <v>10</v>
+      </c>
+      <c r="S360" s="1">
+        <v>9</v>
+      </c>
+      <c r="T360" s="1">
+        <v>6</v>
+      </c>
+      <c r="U360" s="1">
+        <v>19</v>
+      </c>
+      <c r="V360" s="1">
+        <v>5</v>
+      </c>
+      <c r="W360" s="1"/>
+      <c r="X360" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y360" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z360" s="1"/>
+      <c r="AA360" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>93</v>
       </c>
@@ -26977,8 +27923,70 @@
       <c r="E361">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:27">
+      <c r="F361" s="1">
+        <v>15</v>
+      </c>
+      <c r="G361" s="1">
+        <v>8</v>
+      </c>
+      <c r="H361" s="1">
+        <v>0</v>
+      </c>
+      <c r="I361" s="1">
+        <v>2</v>
+      </c>
+      <c r="J361" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K361" s="1">
+        <v>-5</v>
+      </c>
+      <c r="L361" s="1">
+        <v>93</v>
+      </c>
+      <c r="M361" s="1">
+        <v>43</v>
+      </c>
+      <c r="N361" s="1">
+        <v>29</v>
+      </c>
+      <c r="O361" s="1">
+        <v>1019</v>
+      </c>
+      <c r="P361" s="1">
+        <v>1017</v>
+      </c>
+      <c r="Q361" s="1">
+        <v>1014</v>
+      </c>
+      <c r="R361" s="1">
+        <v>10</v>
+      </c>
+      <c r="S361" s="1">
+        <v>10</v>
+      </c>
+      <c r="T361" s="1">
+        <v>10</v>
+      </c>
+      <c r="U361" s="1">
+        <v>26</v>
+      </c>
+      <c r="V361" s="1">
+        <v>10</v>
+      </c>
+      <c r="W361" s="1"/>
+      <c r="X361" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y361" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z361" s="1"/>
+      <c r="AA361" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>93</v>
       </c>
@@ -26994,8 +28002,70 @@
       <c r="E362">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:27">
+      <c r="F362" s="1">
+        <v>15</v>
+      </c>
+      <c r="G362" s="1">
+        <v>9</v>
+      </c>
+      <c r="H362" s="1">
+        <v>3</v>
+      </c>
+      <c r="I362" s="1">
+        <v>3</v>
+      </c>
+      <c r="J362" s="1">
+        <v>-4</v>
+      </c>
+      <c r="K362" s="1">
+        <v>-7</v>
+      </c>
+      <c r="L362" s="1">
+        <v>93</v>
+      </c>
+      <c r="M362" s="1">
+        <v>41</v>
+      </c>
+      <c r="N362" s="1">
+        <v>22</v>
+      </c>
+      <c r="O362" s="1">
+        <v>1021</v>
+      </c>
+      <c r="P362" s="1">
+        <v>1018</v>
+      </c>
+      <c r="Q362" s="1">
+        <v>1017</v>
+      </c>
+      <c r="R362" s="1">
+        <v>10</v>
+      </c>
+      <c r="S362" s="1">
+        <v>10</v>
+      </c>
+      <c r="T362" s="1">
+        <v>10</v>
+      </c>
+      <c r="U362" s="1">
+        <v>23</v>
+      </c>
+      <c r="V362" s="1">
+        <v>10</v>
+      </c>
+      <c r="W362" s="1"/>
+      <c r="X362" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y362" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z362" s="1"/>
+      <c r="AA362" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>93</v>
       </c>
@@ -27011,8 +28081,72 @@
       <c r="E363">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:27">
+      <c r="F363" s="1">
+        <v>15</v>
+      </c>
+      <c r="G363" s="1">
+        <v>9</v>
+      </c>
+      <c r="H363" s="1">
+        <v>3</v>
+      </c>
+      <c r="I363" s="1">
+        <v>4</v>
+      </c>
+      <c r="J363" s="1">
+        <v>1</v>
+      </c>
+      <c r="K363" s="1">
+        <v>-4</v>
+      </c>
+      <c r="L363" s="1">
+        <v>93</v>
+      </c>
+      <c r="M363" s="1">
+        <v>62</v>
+      </c>
+      <c r="N363" s="1">
+        <v>27</v>
+      </c>
+      <c r="O363" s="1">
+        <v>1022</v>
+      </c>
+      <c r="P363" s="1">
+        <v>1020</v>
+      </c>
+      <c r="Q363" s="1">
+        <v>1018</v>
+      </c>
+      <c r="R363" s="1">
+        <v>10</v>
+      </c>
+      <c r="S363" s="1">
+        <v>9</v>
+      </c>
+      <c r="T363" s="1">
+        <v>8</v>
+      </c>
+      <c r="U363" s="1">
+        <v>11</v>
+      </c>
+      <c r="V363" s="1">
+        <v>6</v>
+      </c>
+      <c r="W363" s="1"/>
+      <c r="X363" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y363" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z363" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA363" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>93</v>
       </c>
@@ -27028,8 +28162,70 @@
       <c r="E364">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:27">
+      <c r="F364" s="1">
+        <v>17</v>
+      </c>
+      <c r="G364" s="1">
+        <v>9</v>
+      </c>
+      <c r="H364" s="1">
+        <v>2</v>
+      </c>
+      <c r="I364" s="1">
+        <v>2</v>
+      </c>
+      <c r="J364" s="1">
+        <v>0</v>
+      </c>
+      <c r="K364" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L364" s="1">
+        <v>81</v>
+      </c>
+      <c r="M364" s="1">
+        <v>53</v>
+      </c>
+      <c r="N364" s="1">
+        <v>30</v>
+      </c>
+      <c r="O364" s="1">
+        <v>1020</v>
+      </c>
+      <c r="P364" s="1">
+        <v>1019</v>
+      </c>
+      <c r="Q364" s="1">
+        <v>1016</v>
+      </c>
+      <c r="R364" s="1">
+        <v>10</v>
+      </c>
+      <c r="S364" s="1">
+        <v>10</v>
+      </c>
+      <c r="T364" s="1">
+        <v>10</v>
+      </c>
+      <c r="U364" s="1">
+        <v>14</v>
+      </c>
+      <c r="V364" s="1">
+        <v>3</v>
+      </c>
+      <c r="W364" s="1"/>
+      <c r="X364" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y364" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z364" s="1"/>
+      <c r="AA364" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>93</v>
       </c>
@@ -27044,6 +28240,72 @@
       </c>
       <c r="E365">
         <v>2</v>
+      </c>
+      <c r="F365" s="1">
+        <v>14</v>
+      </c>
+      <c r="G365" s="1">
+        <v>9</v>
+      </c>
+      <c r="H365" s="1">
+        <v>5</v>
+      </c>
+      <c r="I365" s="1">
+        <v>4</v>
+      </c>
+      <c r="J365" s="1">
+        <v>2</v>
+      </c>
+      <c r="K365" s="1">
+        <v>0</v>
+      </c>
+      <c r="L365" s="1">
+        <v>93</v>
+      </c>
+      <c r="M365" s="1">
+        <v>63</v>
+      </c>
+      <c r="N365" s="1">
+        <v>38</v>
+      </c>
+      <c r="O365" s="1">
+        <v>1016</v>
+      </c>
+      <c r="P365" s="1">
+        <v>1015</v>
+      </c>
+      <c r="Q365" s="1">
+        <v>1013</v>
+      </c>
+      <c r="R365" s="1">
+        <v>10</v>
+      </c>
+      <c r="S365" s="1">
+        <v>9</v>
+      </c>
+      <c r="T365" s="1">
+        <v>4</v>
+      </c>
+      <c r="U365" s="1">
+        <v>39</v>
+      </c>
+      <c r="V365" s="1">
+        <v>16</v>
+      </c>
+      <c r="W365" s="1">
+        <v>61</v>
+      </c>
+      <c r="X365" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y365" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z365" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA365" s="1">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -27057,7 +28319,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27069,7 +28331,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
